--- a/Avila Coronado Julieta 20212.xlsx
+++ b/Avila Coronado Julieta 20212.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="1359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="1362">
   <si>
     <t>NC</t>
   </si>
@@ -3780,6 +3780,9 @@
     <t>danycraft111@gmail.com</t>
   </si>
   <si>
+    <t>jesushernandezsarmiento108@gmail.com</t>
+  </si>
+  <si>
     <t>evelynldj@gmail.com</t>
   </si>
   <si>
@@ -3849,6 +3852,9 @@
     <t>2721859278</t>
   </si>
   <si>
+    <t>2722146369</t>
+  </si>
+  <si>
     <t>2721972074</t>
   </si>
   <si>
@@ -3946,6 +3952,9 @@
   </si>
   <si>
     <t>FRANCISCO JAVIER HERNANDEZ VASQUEZ</t>
+  </si>
+  <si>
+    <t>JORGE HERNÁNDEZ ATLAHUA</t>
   </si>
   <si>
     <t>MALDONADO LÓPEZ TETLA</t>
@@ -6459,7 +6468,7 @@
         <v>490</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -6555,7 +6564,7 @@
         <v>493</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -6747,7 +6756,7 @@
         <v>498</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -10459,7 +10468,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10526,16 +10535,16 @@
         <v>1243</v>
       </c>
       <c r="F2" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="H2" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="I2" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="J2" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -10558,16 +10567,16 @@
         <v>1244</v>
       </c>
       <c r="F3" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H3" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="I3" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="J3" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -10590,19 +10599,19 @@
         <v>1245</v>
       </c>
       <c r="F4" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="G4" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="H4" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="I4" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="J4" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -10625,19 +10634,19 @@
         <v>1246</v>
       </c>
       <c r="F5" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="G5" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="H5" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="I5" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="J5" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -10660,19 +10669,19 @@
         <v>1247</v>
       </c>
       <c r="F6" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="G6" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="H6" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="I6" t="s">
         <v>1247</v>
       </c>
       <c r="J6" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -10695,19 +10704,19 @@
         <v>1248</v>
       </c>
       <c r="F7" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="G7" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="H7" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="I7" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="J7" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -10730,16 +10739,16 @@
         <v>1249</v>
       </c>
       <c r="F8" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="H8" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="I8" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="J8" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -10762,16 +10771,16 @@
         <v>1250</v>
       </c>
       <c r="F9" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="H9" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="I9" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="J9" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -10794,19 +10803,19 @@
         <v>1251</v>
       </c>
       <c r="F10" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="G10" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="H10" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="I10" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="J10" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -10829,13 +10838,13 @@
         <v>1252</v>
       </c>
       <c r="F11" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="G11" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="H11" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -10843,133 +10852,133 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>20330051920347</v>
+        <v>20330051920346</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>292</v>
       </c>
       <c r="C12" t="s">
-        <v>293</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>776</v>
+        <v>536</v>
       </c>
       <c r="E12" t="s">
         <v>1253</v>
       </c>
       <c r="F12" t="s">
-        <v>1276</v>
+        <v>1277</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1277</v>
       </c>
       <c r="H12" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="I12" t="s">
-        <v>1330</v>
+        <v>1253</v>
       </c>
       <c r="J12" t="s">
-        <v>1349</v>
+        <v>1277</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>20330051920348</v>
+        <v>20330051920347</v>
       </c>
       <c r="B13" t="s">
-        <v>1209</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>1223</v>
+        <v>293</v>
       </c>
       <c r="D13" t="s">
-        <v>536</v>
+        <v>776</v>
       </c>
       <c r="E13" t="s">
         <v>1254</v>
       </c>
       <c r="F13" t="s">
-        <v>1277</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1293</v>
+        <v>1278</v>
       </c>
       <c r="H13" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="I13" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="J13" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>20330051920349</v>
+        <v>20330051920348</v>
       </c>
       <c r="B14" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C14" t="s">
-        <v>295</v>
+        <v>1223</v>
       </c>
       <c r="D14" t="s">
-        <v>1235</v>
+        <v>536</v>
       </c>
       <c r="E14" t="s">
         <v>1255</v>
       </c>
       <c r="F14" t="s">
-        <v>1278</v>
+        <v>1279</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1295</v>
       </c>
       <c r="H14" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="I14" t="s">
-        <v>1255</v>
+        <v>1334</v>
       </c>
       <c r="J14" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>20330051920350</v>
+        <v>20330051920349</v>
       </c>
       <c r="B15" t="s">
-        <v>298</v>
+        <v>1210</v>
       </c>
       <c r="C15" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D15" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E15" t="s">
         <v>1256</v>
       </c>
       <c r="F15" t="s">
-        <v>1279</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="H15" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="I15" t="s">
-        <v>1332</v>
+        <v>1256</v>
       </c>
       <c r="J15" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -10977,139 +10986,139 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>20330051920352</v>
+        <v>20330051920350</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>292</v>
       </c>
       <c r="D16" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E16" t="s">
         <v>1257</v>
       </c>
       <c r="F16" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="G16" t="s">
-        <v>1294</v>
+        <v>1281</v>
       </c>
       <c r="H16" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="I16" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="J16" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>20330051920353</v>
+        <v>20330051920352</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>297</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E17" t="s">
         <v>1258</v>
       </c>
       <c r="F17" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="G17" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="H17" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="I17" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="J17" t="s">
-        <v>1295</v>
+        <v>1356</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>20330051920354</v>
+        <v>20330051920353</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="D18" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E18" t="s">
         <v>1259</v>
       </c>
       <c r="F18" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="G18" t="s">
-        <v>1282</v>
+        <v>1297</v>
       </c>
       <c r="H18" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="I18" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="J18" t="s">
-        <v>1354</v>
+        <v>1297</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>20330051920355</v>
+        <v>20330051920354</v>
       </c>
       <c r="B19" t="s">
-        <v>1211</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>311</v>
       </c>
       <c r="D19" t="s">
-        <v>776</v>
+        <v>1239</v>
       </c>
       <c r="E19" t="s">
         <v>1260</v>
       </c>
       <c r="F19" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="G19" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="H19" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="I19" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J19" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -11117,98 +11126,101 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>20330051920382</v>
+        <v>20330051920355</v>
       </c>
       <c r="B20" t="s">
-        <v>514</v>
+        <v>1211</v>
       </c>
       <c r="C20" t="s">
-        <v>292</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>1231</v>
+        <v>776</v>
       </c>
       <c r="E20" t="s">
         <v>1261</v>
       </c>
       <c r="F20" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="G20" t="s">
-        <v>1284</v>
+        <v>1298</v>
       </c>
       <c r="H20" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="I20" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="J20" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>19330050470596</v>
+        <v>20330051920382</v>
       </c>
       <c r="B21" t="s">
-        <v>990</v>
+        <v>514</v>
       </c>
       <c r="C21" t="s">
-        <v>523</v>
+        <v>292</v>
       </c>
       <c r="D21" t="s">
-        <v>1240</v>
+        <v>1231</v>
       </c>
       <c r="E21" t="s">
         <v>1262</v>
       </c>
       <c r="F21" t="s">
-        <v>1285</v>
+        <v>1286</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1286</v>
       </c>
       <c r="H21" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="I21" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="J21" t="s">
-        <v>1285</v>
+        <v>1359</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>20330051920356</v>
+        <v>19330050470596</v>
       </c>
       <c r="B22" t="s">
-        <v>1212</v>
+        <v>990</v>
       </c>
       <c r="C22" t="s">
-        <v>1224</v>
+        <v>523</v>
       </c>
       <c r="D22" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E22" t="s">
         <v>1263</v>
       </c>
       <c r="F22" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H22" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="I22" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="J22" t="s">
-        <v>1357</v>
+        <v>1287</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -11216,71 +11228,103 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>20330051920357</v>
+        <v>20330051920356</v>
       </c>
       <c r="B23" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C23" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D23" t="s">
-        <v>334</v>
+        <v>1241</v>
       </c>
       <c r="E23" t="s">
         <v>1264</v>
       </c>
       <c r="F23" t="s">
-        <v>1287</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1297</v>
+        <v>1288</v>
       </c>
       <c r="H23" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="I23" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="J23" t="s">
-        <v>1287</v>
+        <v>1360</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>20330051920383</v>
+        <v>20330051920357</v>
       </c>
       <c r="B24" t="s">
-        <v>303</v>
+        <v>1213</v>
       </c>
       <c r="C24" t="s">
-        <v>523</v>
+        <v>1225</v>
       </c>
       <c r="D24" t="s">
-        <v>1242</v>
+        <v>334</v>
       </c>
       <c r="E24" t="s">
         <v>1265</v>
       </c>
       <c r="F24" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="G24" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="H24" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="I24" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="J24" t="s">
-        <v>1358</v>
+        <v>1289</v>
       </c>
       <c r="K24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>20330051920383</v>
+      </c>
+      <c r="B25" t="s">
+        <v>303</v>
+      </c>
+      <c r="C25" t="s">
+        <v>523</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1344</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K25">
         <v>1</v>
       </c>
     </row>

--- a/Avila Coronado Julieta 20212.xlsx
+++ b/Avila Coronado Julieta 20212.xlsx
@@ -5935,7 +5935,7 @@
         <v>478</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -10847,7 +10847,7 @@
         <v>1310</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
